--- a/docs/newYearProject_api_0.5v.xlsx
+++ b/docs/newYearProject_api_0.5v.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sujinworkspace\hello-new-year\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7923401-9523-41AA-98A7-EFF2E383E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BAB80-4D7B-4B63-9323-5936F66A9605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3060" windowWidth="28800" windowHeight="15470" xr2:uid="{B39A122C-5FE9-4637-9C81-A77D518F6D51}"/>
+    <workbookView xWindow="6520" yWindow="3400" windowWidth="28800" windowHeight="15470" xr2:uid="{B39A122C-5FE9-4637-9C81-A77D518F6D51}"/>
   </bookViews>
   <sheets>
     <sheet name="request" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>HTTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,34 +258,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-	"wish" : "다이어트",
+    <t>커스텀페이지 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀페이지 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스템페이지 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rabbit/mypage/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rabbit/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rabbit/mypage/{uuid}/custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"resultCode": "SUCCESS",
+	"result":{
+		{
+			"message":"custom 등록 완료",
+			"nickName":"sujinAngle" 
+		}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"wish" : "새해다짐",
 	"custom" : "earCode,AccessoryCode,colorCode" 
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀페이지 접속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀페이지 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스템페이지 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rabbit/mypage/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rabbit/{uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rabbit/mypage/{uuid}/custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +723,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -784,7 +795,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
@@ -800,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -814,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.45">
@@ -828,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -854,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE62AAF-3A38-4305-8F5C-D173E5501EE9}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1044,10 +1055,10 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="136" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1055,10 +1066,10 @@
         <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
